--- a/config_debug/xiaoxiaole_caishen_power_cfg.xlsx
+++ b/config_debug/xiaoxiaole_caishen_power_cfg.xlsx
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="65">
   <si>
     <t>元素消除倍数</t>
   </si>
@@ -307,45 +307,6 @@
   </si>
   <si>
     <t>sky_girl_type|0是没有，1是金天女，2是银天女，3是铜天女</t>
-  </si>
-  <si>
-    <t>xxl_bet_1</t>
-  </si>
-  <si>
-    <t>xxl_bet_2</t>
-  </si>
-  <si>
-    <t>xxl_bet_3</t>
-  </si>
-  <si>
-    <t>xxl_bet_4</t>
-  </si>
-  <si>
-    <t>xxl_bet_5</t>
-  </si>
-  <si>
-    <t>xxl_bet_6</t>
-  </si>
-  <si>
-    <t>xxl_bet_7</t>
-  </si>
-  <si>
-    <t>xxl_bet_8</t>
-  </si>
-  <si>
-    <t>xxl_bet_9</t>
-  </si>
-  <si>
-    <t>xxl_bet_10</t>
-  </si>
-  <si>
-    <t>xxl_bet_11</t>
-  </si>
-  <si>
-    <t>xxl_bet_12</t>
-  </si>
-  <si>
-    <t>xxl_bet_13</t>
   </si>
 </sst>
 </file>
@@ -6590,7 +6551,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6613,8 +6574,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>65</v>
+      <c r="A2" s="1">
+        <v>1</v>
       </c>
       <c r="B2" s="18">
         <v>1000</v>
@@ -6625,8 +6586,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>66</v>
+      <c r="A3" s="1">
+        <v>2</v>
       </c>
       <c r="B3" s="18">
         <v>5000</v>
@@ -6637,8 +6598,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>67</v>
+      <c r="A4" s="1">
+        <v>3</v>
       </c>
       <c r="B4" s="18">
         <v>10000</v>
@@ -6649,8 +6610,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>68</v>
+      <c r="A5" s="1">
+        <v>4</v>
       </c>
       <c r="B5" s="18">
         <v>30000</v>
@@ -6661,8 +6622,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>69</v>
+      <c r="A6" s="1">
+        <v>5</v>
       </c>
       <c r="B6" s="18">
         <v>60000</v>
@@ -6673,8 +6634,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>70</v>
+      <c r="A7" s="1">
+        <v>6</v>
       </c>
       <c r="B7" s="18">
         <v>120000</v>
@@ -6685,8 +6646,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>71</v>
+      <c r="A8" s="1">
+        <v>7</v>
       </c>
       <c r="B8" s="18">
         <v>240000</v>
@@ -6697,8 +6658,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>72</v>
+      <c r="A9" s="1">
+        <v>8</v>
       </c>
       <c r="B9" s="18">
         <v>480000</v>
@@ -6709,8 +6670,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>73</v>
+      <c r="A10" s="1">
+        <v>9</v>
       </c>
       <c r="B10" s="18">
         <v>960000</v>
@@ -6721,8 +6682,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>74</v>
+      <c r="A11" s="1">
+        <v>10</v>
       </c>
       <c r="B11" s="18">
         <v>1920000</v>
@@ -6733,8 +6694,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>75</v>
+      <c r="A12" s="1">
+        <v>11</v>
       </c>
       <c r="B12" s="18">
         <v>5120000</v>
@@ -6745,8 +6706,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>76</v>
+      <c r="A13" s="1">
+        <v>12</v>
       </c>
       <c r="B13" s="18">
         <v>10240000</v>
@@ -6757,8 +6718,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>77</v>
+      <c r="A14" s="1">
+        <v>13</v>
       </c>
       <c r="B14" s="18">
         <v>20480000</v>
